--- a/doc/results/petsc/allDataCombined.xlsx
+++ b/doc/results/petsc/allDataCombined.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="output_small" localSheetId="1">'A2 1 core'!$A$1:$V$8</definedName>
     <definedName name="output_verylarge" localSheetId="2">VeryLarge!$A$1:$V$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="139">
   <si>
     <t>machineSize</t>
   </si>
@@ -545,6 +545,24 @@
   </si>
   <si>
     <t>Create cluster</t>
+  </si>
+  <si>
+    <t>HPC Pack, A8 nodes</t>
+  </si>
+  <si>
+    <t>Promote domain controller</t>
+  </si>
+  <si>
+    <t>Create VM for  domain controller</t>
+  </si>
+  <si>
+    <t>Preparing head node</t>
+  </si>
+  <si>
+    <t>Configuring head node</t>
+  </si>
+  <si>
+    <t>Create node templates</t>
   </si>
 </sst>
 </file>
@@ -1032,11 +1050,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146178432"/>
-        <c:axId val="146180352"/>
+        <c:axId val="206867232"/>
+        <c:axId val="205861544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146178432"/>
+        <c:axId val="206867232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1081,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1077,10 +1094,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146180352"/>
+        <c:crossAx val="205861544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1088,7 +1105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146180352"/>
+        <c:axId val="205861544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1129,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1126,17 +1142,16 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146178432"/>
+        <c:crossAx val="206867232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1145,7 +1160,7 @@
           <a:pPr>
             <a:defRPr sz="1200"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1405,11 +1420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147628800"/>
-        <c:axId val="147630720"/>
+        <c:axId val="206875456"/>
+        <c:axId val="207088464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147628800"/>
+        <c:axId val="206875456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1447,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1446,10 +1460,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147630720"/>
+        <c:crossAx val="207088464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1457,7 +1471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147630720"/>
+        <c:axId val="207088464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1495,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1495,17 +1508,16 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147628800"/>
+        <c:crossAx val="206875456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1514,7 +1526,7 @@
           <a:pPr>
             <a:defRPr sz="1200"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1728,11 +1740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147743872"/>
-        <c:axId val="147745792"/>
+        <c:axId val="205366296"/>
+        <c:axId val="205367080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147743872"/>
+        <c:axId val="205366296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,10 +1785,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147745792"/>
+        <c:crossAx val="205367080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147745792"/>
+        <c:axId val="205367080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,10 +1834,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147743872"/>
+        <c:crossAx val="205366296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1841,7 +1853,7 @@
           <a:pPr>
             <a:defRPr sz="1200"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2035,11 +2047,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147662720"/>
-        <c:axId val="147664256"/>
+        <c:axId val="205367864"/>
+        <c:axId val="205368256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147662720"/>
+        <c:axId val="205367864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147664256"/>
+        <c:crossAx val="205368256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2056,7 +2068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147664256"/>
+        <c:axId val="205368256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147662720"/>
+        <c:crossAx val="205367864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2528,11 +2540,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="148153856"/>
-        <c:axId val="148155392"/>
+        <c:axId val="205371000"/>
+        <c:axId val="207388936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148153856"/>
+        <c:axId val="205371000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,10 +2578,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148155392"/>
+        <c:crossAx val="207388936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2577,7 +2589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148155392"/>
+        <c:axId val="207388936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,10 +2637,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148153856"/>
+        <c:crossAx val="205371000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2638,7 +2650,6 @@
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -2669,7 +2680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2699,7 +2710,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2809,11 +2820,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="148175104"/>
-        <c:axId val="148197376"/>
+        <c:axId val="207389720"/>
+        <c:axId val="207390112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148175104"/>
+        <c:axId val="207389720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,10 +2855,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148197376"/>
+        <c:crossAx val="207390112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2855,7 +2866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148197376"/>
+        <c:axId val="207390112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.7500000000000007E-3"/>
@@ -2904,10 +2915,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148175104"/>
+        <c:crossAx val="207389720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2931,7 +2942,7 @@
           <a:pPr>
             <a:defRPr sz="1200"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2961,7 +2972,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3021,6 +3032,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -3214,12 +3245,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="148234624"/>
-        <c:axId val="148236160"/>
+        <c:axId val="207390896"/>
+        <c:axId val="207391288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="148234624"/>
+        <c:axId val="207390896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,10 +3284,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148236160"/>
+        <c:crossAx val="207391288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3264,7 +3295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148236160"/>
+        <c:axId val="207391288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,10 +3343,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148234624"/>
+        <c:crossAx val="207390896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3355,7 +3386,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3385,7 +3416,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3746,11 +3777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148289408"/>
-        <c:axId val="148299776"/>
+        <c:axId val="207392072"/>
+        <c:axId val="207392464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148289408"/>
+        <c:axId val="207392072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,7 +3808,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3791,10 +3821,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148299776"/>
+        <c:crossAx val="207392464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3802,7 +3832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148299776"/>
+        <c:axId val="207392464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3830,7 +3860,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3844,17 +3873,16 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148289408"/>
+        <c:crossAx val="207392072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3863,7 +3891,7 @@
           <a:pPr>
             <a:defRPr sz="1200"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3920,46 +3948,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4987,500 +4975,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5807,7 +5301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5842,7 +5336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6058,9 +5552,9 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6258,10 +5752,10 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30">
@@ -7379,28 +6873,28 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -7976,28 +7470,28 @@
       <selection activeCell="U15" sqref="U15:U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -9325,28 +8819,28 @@
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -10143,28 +9637,28 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -11621,9 +11115,9 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
@@ -12583,11 +12077,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
@@ -12976,13 +12470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
@@ -13334,21 +12828,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R11"/>
+  <dimension ref="B3:R42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18">
@@ -13556,6 +13050,139 @@
     <row r="11" spans="2:18">
       <c r="K11" s="30"/>
       <c r="O11" s="30"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30">
+        <v>2.199074074074074E-4</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30">
+        <v>5.9143518518518521E-3</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30">
+        <v>1.6550925925925926E-3</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30">
+        <v>3.9814814814814817E-3</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="30">
+        <f>SUM(E35:E41)</f>
+        <v>4.3634259259259262E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
